--- a/App/ECA.Database/Data Migration/MigrationScripts/ECA/DuplicateParticipantPersonList and Corrections.xlsx
+++ b/App/ECA.Database/Data Migration/MigrationScripts/ECA/DuplicateParticipantPersonList and Corrections.xlsx
@@ -21714,7 +21714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
